--- a/Capstone Project/Alireza/YearModReg.xlsx
+++ b/Capstone Project/Alireza/YearModReg.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/83c531bc5c99d44a/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCIT COURSES\BBA\Winter 2022\Data Modelling and BI_BUSA 7750\Capstone Project\Cars Dealership\From March 21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D3E5FAA-FD45-4223-822C-865F957FA85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BC29E6-613C-4BB5-8A89-24FECCB557BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="982" xr2:uid="{6022C8B0-593D-4F6F-A13C-C62463C04408}"/>
+    <workbookView xWindow="-23148" yWindow="-72" windowWidth="23256" windowHeight="12576" tabRatio="982" xr2:uid="{6022C8B0-593D-4F6F-A13C-C62463C04408}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ontario" sheetId="2" r:id="rId1"/>
-    <sheet name="Quebec" sheetId="3" r:id="rId2"/>
-    <sheet name="British Columbia" sheetId="1" r:id="rId3"/>
-    <sheet name="Alberta" sheetId="4" r:id="rId4"/>
-    <sheet name="Manitoba" sheetId="7" r:id="rId5"/>
-    <sheet name="Saskatchewan" sheetId="6" r:id="rId6"/>
-    <sheet name="Nova Scotia" sheetId="5" r:id="rId7"/>
-    <sheet name="New Brunswick" sheetId="10" r:id="rId8"/>
-    <sheet name="NewFoundland and Labrador" sheetId="9" r:id="rId9"/>
-    <sheet name="Prince Edward Island" sheetId="11" r:id="rId10"/>
-    <sheet name="Northwest Territories" sheetId="13" r:id="rId11"/>
-    <sheet name="Yukon" sheetId="12" r:id="rId12"/>
-    <sheet name="Nunavut" sheetId="14" r:id="rId13"/>
+    <sheet name="ModelID" sheetId="15" r:id="rId1"/>
+    <sheet name="ModYear" sheetId="18" r:id="rId2"/>
+    <sheet name="ModYearReg" sheetId="19" r:id="rId3"/>
+    <sheet name="YearID" sheetId="16" r:id="rId4"/>
+    <sheet name="RegID" sheetId="17" r:id="rId5"/>
+    <sheet name="Ontario" sheetId="2" r:id="rId6"/>
+    <sheet name="Quebec" sheetId="3" r:id="rId7"/>
+    <sheet name="British Columbia" sheetId="1" r:id="rId8"/>
+    <sheet name="Alberta" sheetId="4" r:id="rId9"/>
+    <sheet name="Manitoba" sheetId="7" r:id="rId10"/>
+    <sheet name="Saskatchewan" sheetId="6" r:id="rId11"/>
+    <sheet name="Nova Scotia" sheetId="5" r:id="rId12"/>
+    <sheet name="New Brunswick" sheetId="10" r:id="rId13"/>
+    <sheet name="NewFoundland and Labrador" sheetId="9" r:id="rId14"/>
+    <sheet name="Prince Edward Island" sheetId="11" r:id="rId15"/>
+    <sheet name="Northwest Territories" sheetId="13" r:id="rId16"/>
+    <sheet name="Yukon" sheetId="12" r:id="rId17"/>
+    <sheet name="Nunavut" sheetId="14" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -46,31 +51,275 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="13">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="60"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="170"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="208"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="237"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="270"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="298"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="326"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="351"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="372"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="385"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="397"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="408"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="13">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+    <bk>
+      <rc t="1" v="9"/>
+    </bk>
+    <bk>
+      <rc t="1" v="10"/>
+    </bk>
+    <bk>
+      <rc t="1" v="11"/>
+    </bk>
+    <bk>
+      <rc t="1" v="12"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="43">
+  <si>
+    <t>ModelID</t>
+  </si>
+  <si>
+    <t>ModelName</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
   <si>
     <t xml:space="preserve">Corolla </t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Camry</t>
   </si>
   <si>
+    <t>M3</t>
+  </si>
+  <si>
     <t>Pirus</t>
+  </si>
+  <si>
+    <t>M4</t>
   </si>
   <si>
     <t>Sienna</t>
   </si>
   <si>
+    <t>M5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tacoma </t>
+  </si>
+  <si>
+    <t>M6</t>
   </si>
   <si>
     <t>Yaris</t>
   </si>
   <si>
+    <t>M7</t>
+  </si>
+  <si>
     <t>Rav4</t>
   </si>
   <si>
+    <t>M8</t>
+  </si>
+  <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>Y4</t>
+  </si>
+  <si>
+    <t>Y5</t>
+  </si>
+  <si>
+    <t>YearID</t>
+  </si>
+  <si>
+    <t>RegID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Province&amp;Territories </t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>YT</t>
+  </si>
+  <si>
+    <t>NU</t>
   </si>
   <si>
     <t>Total</t>
@@ -84,7 +333,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +399,4147 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity2">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentity2core">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataRetrievedTime">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%EntityDomainIdString">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%InfoToolTipLabelNames">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%InfoToolTipLabelValues">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%InfoToolTipLabelValuesType">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderString">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%ClassificationId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_webimage">
+      <keyFlags>
+        <key name="WebImageIdentifier">
+          <flag name="ShowInCardView" value="0"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdRichValueWebImage.xml><?xml version="1.0" encoding="utf-8"?>
+<webImagesSrd xmlns="http://schemas.microsoft.com/office/spreadsheetml/2020/richdatawebimage" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <webImageSrd>
+    <address r:id="rId1"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId2"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId3"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId4"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId5"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId6"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId7"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId8"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId9"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId10"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId11"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId12"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId13"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId14"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId15"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId16"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId17"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId18"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId19"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId20"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId21"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId22"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId23"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId24"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId25"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId26"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId27"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId28"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId29"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId30"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId31"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId32"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId33"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId34"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId35"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId36"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId37"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId38"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId39"/>
+  </webImageSrd>
+</webImagesSrd>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="13">
+  <a r="49">
+    <v t="r">9</v>
+    <v t="r">10</v>
+    <v t="r">11</v>
+    <v t="r">12</v>
+    <v t="r">13</v>
+    <v t="r">14</v>
+    <v t="r">15</v>
+    <v t="r">16</v>
+    <v t="r">17</v>
+    <v t="r">18</v>
+    <v t="r">19</v>
+    <v t="r">20</v>
+    <v t="r">21</v>
+    <v t="r">22</v>
+    <v t="r">23</v>
+    <v t="r">24</v>
+    <v t="r">25</v>
+    <v t="r">26</v>
+    <v t="r">27</v>
+    <v t="r">28</v>
+    <v t="r">29</v>
+    <v t="r">30</v>
+    <v t="r">31</v>
+    <v t="r">32</v>
+    <v t="r">33</v>
+    <v t="r">34</v>
+    <v t="r">35</v>
+    <v t="r">36</v>
+    <v t="r">37</v>
+    <v t="r">38</v>
+    <v t="r">39</v>
+    <v t="r">40</v>
+    <v t="r">41</v>
+    <v t="r">42</v>
+    <v t="r">43</v>
+    <v t="r">44</v>
+    <v t="r">45</v>
+    <v t="r">46</v>
+    <v t="r">47</v>
+    <v t="r">48</v>
+    <v t="r">49</v>
+    <v t="r">50</v>
+    <v t="r">51</v>
+    <v t="r">52</v>
+    <v t="r">53</v>
+    <v t="r">54</v>
+    <v t="r">55</v>
+    <v t="r">56</v>
+    <v t="r">57</v>
+  </a>
+  <a r="100">
+    <v t="r">68</v>
+    <v t="r">69</v>
+    <v t="r">70</v>
+    <v t="r">71</v>
+    <v t="r">72</v>
+    <v t="r">73</v>
+    <v t="r">74</v>
+    <v t="r">75</v>
+    <v t="r">76</v>
+    <v t="r">77</v>
+    <v t="r">78</v>
+    <v t="r">79</v>
+    <v t="r">80</v>
+    <v t="r">81</v>
+    <v t="r">82</v>
+    <v t="r">83</v>
+    <v t="r">84</v>
+    <v t="r">85</v>
+    <v t="r">86</v>
+    <v t="r">87</v>
+    <v t="r">88</v>
+    <v t="r">89</v>
+    <v t="r">90</v>
+    <v t="r">91</v>
+    <v t="r">92</v>
+    <v t="r">93</v>
+    <v t="r">94</v>
+    <v t="r">95</v>
+    <v t="r">96</v>
+    <v t="r">97</v>
+    <v t="r">98</v>
+    <v t="r">99</v>
+    <v t="r">100</v>
+    <v t="r">101</v>
+    <v t="r">102</v>
+    <v t="r">103</v>
+    <v t="r">104</v>
+    <v t="r">105</v>
+    <v t="r">106</v>
+    <v t="r">107</v>
+    <v t="r">108</v>
+    <v t="r">109</v>
+    <v t="r">110</v>
+    <v t="r">111</v>
+    <v t="r">112</v>
+    <v t="r">113</v>
+    <v t="r">114</v>
+    <v t="r">115</v>
+    <v t="r">116</v>
+    <v t="r">117</v>
+    <v t="r">118</v>
+    <v t="r">119</v>
+    <v t="r">120</v>
+    <v t="r">121</v>
+    <v t="r">122</v>
+    <v t="r">123</v>
+    <v t="r">124</v>
+    <v t="r">125</v>
+    <v t="r">126</v>
+    <v t="r">127</v>
+    <v t="r">128</v>
+    <v t="r">129</v>
+    <v t="r">130</v>
+    <v t="r">131</v>
+    <v t="r">132</v>
+    <v t="r">133</v>
+    <v t="r">134</v>
+    <v t="r">135</v>
+    <v t="r">136</v>
+    <v t="r">137</v>
+    <v t="r">138</v>
+    <v t="r">139</v>
+    <v t="r">140</v>
+    <v t="r">141</v>
+    <v t="r">142</v>
+    <v t="r">143</v>
+    <v t="r">144</v>
+    <v t="r">145</v>
+    <v t="r">146</v>
+    <v t="r">147</v>
+    <v t="r">148</v>
+    <v t="r">149</v>
+    <v t="r">150</v>
+    <v t="r">151</v>
+    <v t="r">152</v>
+    <v t="r">153</v>
+    <v t="r">154</v>
+    <v t="r">155</v>
+    <v t="r">156</v>
+    <v t="r">157</v>
+    <v t="r">158</v>
+    <v t="r">159</v>
+    <v t="r">160</v>
+    <v t="r">161</v>
+    <v t="r">162</v>
+    <v t="r">163</v>
+    <v t="r">164</v>
+    <v t="r">165</v>
+    <v t="r">166</v>
+    <v t="r">167</v>
+  </a>
+  <a r="28">
+    <v t="r">178</v>
+    <v t="r">179</v>
+    <v t="r">180</v>
+    <v t="r">181</v>
+    <v t="r">182</v>
+    <v t="r">183</v>
+    <v t="r">184</v>
+    <v t="r">185</v>
+    <v t="r">186</v>
+    <v t="r">187</v>
+    <v t="r">188</v>
+    <v t="r">189</v>
+    <v t="r">190</v>
+    <v t="r">191</v>
+    <v t="r">192</v>
+    <v t="r">193</v>
+    <v t="r">194</v>
+    <v t="r">195</v>
+    <v t="r">196</v>
+    <v t="r">197</v>
+    <v t="r">198</v>
+    <v t="r">199</v>
+    <v t="r">200</v>
+    <v t="r">201</v>
+    <v t="r">202</v>
+    <v t="r">203</v>
+    <v t="r">204</v>
+    <v t="r">205</v>
+  </a>
+  <a r="19">
+    <v t="r">216</v>
+    <v t="r">217</v>
+    <v t="r">218</v>
+    <v t="r">219</v>
+    <v t="r">220</v>
+    <v t="r">221</v>
+    <v t="r">222</v>
+    <v t="r">223</v>
+    <v t="r">224</v>
+    <v t="r">225</v>
+    <v t="r">226</v>
+    <v t="r">227</v>
+    <v t="r">228</v>
+    <v t="r">229</v>
+    <v t="r">230</v>
+    <v t="r">231</v>
+    <v t="r">232</v>
+    <v t="r">233</v>
+    <v t="r">234</v>
+  </a>
+  <a r="23">
+    <v t="r">245</v>
+    <v t="r">246</v>
+    <v t="r">247</v>
+    <v t="r">248</v>
+    <v t="r">249</v>
+    <v t="r">250</v>
+    <v t="r">251</v>
+    <v t="r">252</v>
+    <v t="r">253</v>
+    <v t="r">254</v>
+    <v t="r">255</v>
+    <v t="r">256</v>
+    <v t="r">257</v>
+    <v t="r">258</v>
+    <v t="r">259</v>
+    <v t="r">260</v>
+    <v t="r">261</v>
+    <v t="r">262</v>
+    <v t="r">263</v>
+    <v t="r">264</v>
+    <v t="r">265</v>
+    <v t="r">266</v>
+    <v t="r">267</v>
+  </a>
+  <a r="18">
+    <v t="r">278</v>
+    <v t="r">279</v>
+    <v t="r">280</v>
+    <v t="r">281</v>
+    <v t="r">282</v>
+    <v t="r">283</v>
+    <v t="r">284</v>
+    <v t="r">285</v>
+    <v t="r">286</v>
+    <v t="r">287</v>
+    <v t="r">288</v>
+    <v t="r">289</v>
+    <v t="r">290</v>
+    <v t="r">291</v>
+    <v t="r">292</v>
+    <v t="r">293</v>
+    <v t="r">294</v>
+    <v t="r">295</v>
+  </a>
+  <a r="18">
+    <v t="r">306</v>
+    <v t="r">307</v>
+    <v t="r">308</v>
+    <v t="r">309</v>
+    <v t="r">310</v>
+    <v t="r">311</v>
+    <v t="r">312</v>
+    <v t="r">313</v>
+    <v t="r">314</v>
+    <v t="r">315</v>
+    <v t="r">316</v>
+    <v t="r">317</v>
+    <v t="r">318</v>
+    <v t="r">319</v>
+    <v t="r">320</v>
+    <v t="r">321</v>
+    <v t="r">322</v>
+    <v t="r">323</v>
+  </a>
+  <a r="15">
+    <v t="r">334</v>
+    <v t="r">335</v>
+    <v t="r">336</v>
+    <v t="r">337</v>
+    <v t="r">338</v>
+    <v t="r">339</v>
+    <v t="r">340</v>
+    <v t="r">341</v>
+    <v t="r">342</v>
+    <v t="r">343</v>
+    <v t="r">344</v>
+    <v t="r">345</v>
+    <v t="r">346</v>
+    <v t="r">347</v>
+    <v t="r">348</v>
+  </a>
+  <a r="11">
+    <v t="r">359</v>
+    <v t="r">360</v>
+    <v t="r">361</v>
+    <v t="r">362</v>
+    <v t="r">363</v>
+    <v t="r">364</v>
+    <v t="r">365</v>
+    <v t="r">366</v>
+    <v t="r">367</v>
+    <v t="r">368</v>
+    <v t="r">369</v>
+  </a>
+  <a r="3">
+    <v t="r">380</v>
+    <v t="r">381</v>
+    <v t="r">382</v>
+  </a>
+  <a r="2">
+    <v t="r">393</v>
+    <v t="r">394</v>
+  </a>
+  <a r="1">
+    <v t="r">405</v>
+  </a>
+  <a r="3">
+    <v t="r">416</v>
+    <v t="r">417</v>
+    <v t="r">418</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="421">
+  <rv s="0">
+    <v>536871168</v>
+    <v>Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="1">
+    <fb>1076395</fb>
+    <v>21</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Toronto</v>
+    <v>wjson{"t":"e","d":"City","e":["Toronto","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Canada</v>
+    <v>wjson{"t":"e","d":"Country","e":"Canada"}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="2">
+    <v>0</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>local map of Ontario, Canada</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>location map of Ontario, Canada</v>
+  </rv>
+  <rv s="1">
+    <fb>14279196</fb>
+    <v>21</v>
+  </rv>
+  <rv s="1">
+    <fb>13.265758387952378</fb>
+    <v>23</v>
+  </rv>
+  <rv s="2">
+    <v>2</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>population history of Ontario, Canada</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Algoma, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Algoma","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Brant, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Brant","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Bruce, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Bruce","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Cochrane, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Cochrane","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Dufferin, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Dufferin","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Durham, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Durham","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Elgin, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Elgin","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Essex, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Essex","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Frontenac, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Frontenac","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Grey, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Grey","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Haldimand, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Haldimand","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Haliburton, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Haliburton","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Halton, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Halton","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Hamilton, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["HamiltonWentworth","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Hastings, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Hastings","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Huron, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Huron","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Kenora, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Kenora","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Chatham‐Kent, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Kent","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Lambton, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Lambton","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Lanark, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Lanark","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Leeds and Grenville, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LeedsAndGrenville","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Lennox and Addington, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LennoxAndAddington","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Manitoulin, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Manitoulin","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Middlesex, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Middlesex","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Muskoka, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Muskoka","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Niagara, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Niagara","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Nipissing, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Nipissing","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Haldimand‐Norfolk, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Norfolk","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Northumberland, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Northumberland","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Ottawa, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["OttawaCarleton","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Oxford, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Oxford","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Parry Sound, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["ParrySound","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Peel, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Peel","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Perth, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Perth","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Peterborough, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Peterborough","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Prescott and Russell, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["PrescottAndRussell","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Prince Edward, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["PrinceEdward","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Rainy River, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["RainyRiver","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Renfrew, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Renfrew","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Simcoe, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Simcoe","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Stormont, Dundas and Glengarry, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["StormontDundasAndGlengarry","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Sudbury, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Sudbury","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Thunder Bay, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["ThunderBay","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Timiskaming, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Timiskaming","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Toronto, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Toronto","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Kawartha Lakes, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Victoria","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Waterloo, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Waterloo","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Wellington, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Wellington","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>York, Ontario, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["York","Ontario","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="3">
+    <v>0</v>
+  </rv>
+  <rv s="4">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Ontario","Canada"]}</v>
+    <v>536871168</v>
+    <v>1</v>
+    <v>1</v>
+    <v>2</v>
+    <v>Ontario, Canada</v>
+    <v>4</v>
+    <v>5</v>
+    <v>City</v>
+    <v>6</v>
+    <v>7</v>
+    <v>20</v>
+    <v>1</v>
+    <v>2</v>
+    <v>3</v>
+    <v>4</v>
+    <v>5</v>
+    <v>Ontario, Canada</v>
+    <v>3</v>
+    <v>6</v>
+    <v>7</v>
+    <v>8</v>
+    <v>58</v>
+    <v>Ontario, Canada</v>
+    <v>Ontario is one of the thirteen provinces and territories of Canada.</v>
+    <v>administrative division</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="1">
+    <fb>1542056</fb>
+    <v>21</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Quebec City</v>
+    <v>wjson{"t":"e","d":"City","e":["Quebec","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="2">
+    <v>3</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>local map of Quebec, Canada</v>
+  </rv>
+  <rv s="2">
+    <v>4</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>location map of Quebec, Canada</v>
+  </rv>
+  <rv s="1">
+    <fb>8425996</fb>
+    <v>21</v>
+  </rv>
+  <rv s="1">
+    <fb>5.4641310043215032</fb>
+    <v>26</v>
+  </rv>
+  <rv s="2">
+    <v>5</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>population history of Quebec, Canada</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Abitibi, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Abitibi","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Abitibi‐Ouest, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["AbitibiOuest","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Acton, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Acton","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Antoine‐Labelle, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["AntoineLabelle","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Argenteuil, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Argenteuil","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Arthabaska, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Arthabaska","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Asbestos, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Asbestos","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Avignon, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Avignon","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Beauce‐Sartigan, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["BeauceSartigan","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Beauharnois‐Salaberry, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["BeauharnoisSalaberry","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Bécancour, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Becancour","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Bellechasse, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Bellechasse","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Bonaventure, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Bonaventure","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Brome‐Missisquoi, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["BromeMissisquoi","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Champlain, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Champlain","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Charlevoix, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Charlevoix","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Charlevoix‐Est, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["CharlevoixEst","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Coaticook, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Coaticook","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Communauté‐Urbaine‐de‐l'Outaouais, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["CommunauteUrbaineDeLOutaouais","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Communauté‐Urbaine‐de‐Montréal, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["CommunauteUrbaineDeMontreal","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Communauté‐Urbaine‐de‐Québec, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["CommunauteUrbaineDeQuebec","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Quebec, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Compton","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>D'Autray, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DAutray","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>La Haute‐Gaspésie, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DenisRiverin","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Desjardins, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Desjardins","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Deux‐Montagnes, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DeuxMontagnes","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Drummond, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Drummond","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Francheville, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Francheville","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Joliette, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Joliette","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Kamouraska, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Kamouraska","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>La Côte‐de‐Beaupré, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LaCoteDeBeaupre","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>La Côte‐de‐Gaspé, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LaCoteDeGaspe","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Lac‐Saint‐Jean‐Est, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LacSaintJeanEst","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>La Haute‐Côte‐Nord, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LaHauteCoteNord","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>La Haute‐Yamaska, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LaHauteYamaska","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>La Jacques‐Cartier, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LaJacquesCartier","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Lajemmerais, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Lajemmerais","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>La Matapédia, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LaMatapedia","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>L'Amiante, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LAmiante","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>La Mitis, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LaMitis","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>La Nouvelle‐Beauce, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LaNouvelleBeauce","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>La Rivière‐du‐Nord, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LaRiviereDuNord","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>L'Assomption, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LAssomption","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Laval, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Laval","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>La Vallée‐de‐la‐Gatineau, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LaValleeDeLaGatineau","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>La Vallée‐du‐Richelieu, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LaValleeDuRichelieu","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Le Bas‐Richelieu, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LeBasRichelieu","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Le Centre‐de‐la‐Mauricie, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LeCentreDeLaMauricie","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Le Domaine‐du‐Roy, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LeDomaineDuRoy","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Le Fjord‐du‐Saguenay, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LeFjordDuSaguenay","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Le Granit, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LeGranit","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Le Haut‐Richelieu, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LeHautRichelieu","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Le Haut‐Saint‐François, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LeHautSaintFrancois","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Le Haut‐Saint‐Laurent, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LeHautSaintLaurent","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Le Haut‐Saint‐Maurice, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LeHautSaintMaurice","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>L'Érable, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LErable","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Les Basques, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LesBasques","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Les Chutes‐de‐la‐Chaudière, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LesChutesDeLaChaudiere","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Les Collines‐de‐l'Outaouais, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LesCollinesDeLOutaouais","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Les Etchemins, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LesEtchemins","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Les Îles‐de‐la‐Madeleine, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LesIlesDeLaMadeleine","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Les Jardins‐de‐Napierville, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LesJardinsDeNapierville","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Les Laurentides, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LesLaurentides","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Les Maskoutains, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LesMaskoutains","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Les Moulins, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LesMoulins","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Les Pays‐d'en‐Haut, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LesPaysDEnHaut","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Le Val‐Saint‐François, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LeValSaintFrancois","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>L'Île‐d'Orléans, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LIleDOrleans","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>L'Islet, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["LIslet","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Lotbinière, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Lotbiniere","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Manicouagan, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Manicouagan","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Maria‐Chapdelaine, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["MariaChapdelaine","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Maskinongé, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Maskinonge","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Matane, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Matane","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Matawinie, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Matawinie","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Mékinac, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Mekinac","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Memphrémagog, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Memphremagog","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Minganie‐‐Basse‐Côte‐Nord, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["MinganieBasseCoteNord","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Mirabel, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Mirabel","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Montcalm, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Montcalm","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Montmagny, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Montmagny","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Nicolet‐Yamaska, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["NicoletYamaska","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Nord‐du‐Québec, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["NordDuQuebec","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Le Rocher‐Percé, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Pabok","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Papineau, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Papineau","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Pontiac, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Pontiac","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Portneuf, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Portneuf","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Rimouski‐Neigette, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["RimouskiNeigette","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Rivière‐du‐Loup, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["RiviereDuLoup","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Robert‐Cliche, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["RobertCliche","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Roussillon, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Roussillon","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Rouville, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Rouville","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Rouyn‐Noranda, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["RouynNoranda","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Sept‐Rivières‐‐Caniapiscau, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["SeptRivieresCaniapiscau","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>La Région‐Sherbrookoise, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Sherbrooke","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Témiscamingue, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Temiscamingue","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Témiscouata, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Temiscouata","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Thérèse‐De Blainville, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["ThereseDeBlainville","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Vallée‐de‐l'Or, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["ValleeDeLOr","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Vaudreuil‐Soulanges, Quebec, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["VaudreuilSoulanges","Quebec","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="3">
+    <v>1</v>
+  </rv>
+  <rv s="4">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Quebec","Canada"]}</v>
+    <v>536871168</v>
+    <v>1</v>
+    <v>24</v>
+    <v>25</v>
+    <v>Quebec, Canada</v>
+    <v>4</v>
+    <v>5</v>
+    <v>City</v>
+    <v>6</v>
+    <v>7</v>
+    <v>20</v>
+    <v>61</v>
+    <v>62</v>
+    <v>3</v>
+    <v>63</v>
+    <v>64</v>
+    <v>Quebec, Canada</v>
+    <v>3</v>
+    <v>65</v>
+    <v>66</v>
+    <v>67</v>
+    <v>168</v>
+    <v>Quebec, Canada</v>
+    <v>Quebec (sometimes) is one of the thirteen provinces and territories of Canada. Quebec is the largest province by area, at 1,542,056 km^2 (595,391 sq mi), and the second–largest by population, with 8,164,361 people.</v>
+    <v>administrative division</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="1">
+    <fb>944735</fb>
+    <v>21</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Victoria</v>
+    <v>wjson{"t":"e","d":"City","e":["Victoria","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="2">
+    <v>6</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>local map of British Columbia, Canada</v>
+  </rv>
+  <rv s="2">
+    <v>7</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>location map of British Columbia, Canada</v>
+  </rv>
+  <rv s="1">
+    <fb>4841078</fb>
+    <v>21</v>
+  </rv>
+  <rv s="1">
+    <fb>5.1242708272690223</fb>
+    <v>26</v>
+  </rv>
+  <rv s="2">
+    <v>8</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>population history of British Columbia, Canada</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Alberni‐Clayoquot, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["AlberniClayoquot","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Bulkley‐Nechako, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["BulkleyNechako","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Capital, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Capital","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Cariboo, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Cariboo","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Central Coast, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["CentralCoast","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Central Kootenay, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["CentralKootenay","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Central Okanagan, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["CentralOkanagan","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Columbia‐Shuswap, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["ColumbiaShuswap","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Comox‐Strathcona, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["ComoxStrathcona","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Cowichan Valley, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["CowichanValley","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>East Kootenay, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["EastKootenay","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Northern Rockies, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["FortNelsonLiard","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Fraser‐Fort George, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["FraserFortGeorge","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Fraser Valley, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["FraserValley","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Greater Vancouver, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["GreaterVancouver","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Kitimat‐Stikine, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["KitimatStikine","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Kootenay Boundary, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["KootenayBoundary","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Mount Waddington, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["MountWaddington","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Nanaimo, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Nanaimo","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>North Okanagan, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["NorthOkanagan","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Okanagan‐Similkameen, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["OkanaganSimilkameen","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Peace River, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["PeaceRiver","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Powell River, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["PowellRiver","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Skeena‐Queen Charlotte, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["SkeenaQueenCharlotte","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Squamish‐Lillooet, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["SquamishLillooet","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Stikine, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Stikine","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Sunshine Coast, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["SunshineCoast","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Thompson‐Nicola, British Columbia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["ThompsonNicola","BritishColumbia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="3">
+    <v>2</v>
+  </rv>
+  <rv s="4">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["BritishColumbia","Canada"]}</v>
+    <v>536871168</v>
+    <v>1</v>
+    <v>24</v>
+    <v>25</v>
+    <v>British Columbia, Canada</v>
+    <v>4</v>
+    <v>5</v>
+    <v>City</v>
+    <v>6</v>
+    <v>7</v>
+    <v>20</v>
+    <v>171</v>
+    <v>172</v>
+    <v>3</v>
+    <v>173</v>
+    <v>174</v>
+    <v>British Columbia, Canada</v>
+    <v>3</v>
+    <v>175</v>
+    <v>176</v>
+    <v>177</v>
+    <v>206</v>
+    <v>British Columbia, Canada</v>
+    <v>British Columbia (BC) is the westernmost province of Canada, situated between the Pacific Ocean and the Rocky Mountains. With an estimated population of 5.1 million as of 2021, it is Canada's third–most populous province.</v>
+    <v>administrative division</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Alberta, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Alberta","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="1">
+    <fb>661848</fb>
+    <v>21</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Edmonton</v>
+    <v>wjson{"t":"e","d":"City","e":["Edmonton","Alberta","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="2">
+    <v>9</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>local map of Alberta, Canada</v>
+  </rv>
+  <rv s="2">
+    <v>10</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>location map of Alberta, Canada</v>
+  </rv>
+  <rv s="1">
+    <fb>4196457</fb>
+    <v>21</v>
+  </rv>
+  <rv s="1">
+    <fb>6.3405147405446565</fb>
+    <v>26</v>
+  </rv>
+  <rv s="2">
+    <v>11</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>population history of Alberta, Canada</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 1, Alberta, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo1","Alberta","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 10, Alberta, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo10","Alberta","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 11, Alberta, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo11","Alberta","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 12, Alberta, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo12","Alberta","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 13, Alberta, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo13","Alberta","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 14, Alberta, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo14","Alberta","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 15, Alberta, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo15","Alberta","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 16, Alberta, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo16","Alberta","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 17, Alberta, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo17","Alberta","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 18, Alberta, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo18","Alberta","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 19, Alberta, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo19","Alberta","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 2, Alberta, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo2","Alberta","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 3, Alberta, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo3","Alberta","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 4, Alberta, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo4","Alberta","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 5, Alberta, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo5","Alberta","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 6, Alberta, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo6","Alberta","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 7, Alberta, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo7","Alberta","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 8, Alberta, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo8","Alberta","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 9, Alberta, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo9","Alberta","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="3">
+    <v>3</v>
+  </rv>
+  <rv s="4">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Alberta","Canada"]}</v>
+    <v>536871168</v>
+    <v>1</v>
+    <v>24</v>
+    <v>25</v>
+    <v>Alberta, Canada</v>
+    <v>4</v>
+    <v>5</v>
+    <v>City</v>
+    <v>6</v>
+    <v>7</v>
+    <v>20</v>
+    <v>209</v>
+    <v>210</v>
+    <v>3</v>
+    <v>211</v>
+    <v>212</v>
+    <v>Alberta, Canada</v>
+    <v>3</v>
+    <v>213</v>
+    <v>214</v>
+    <v>215</v>
+    <v>235</v>
+    <v>Alberta, Canada</v>
+    <v>Alberta is one of the thirteen provinces and territories of Canada. It is part of Western Canada and is one of the three prairie provinces. English is the official language of the province.</v>
+    <v>administrative division</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Manitoba, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="1">
+    <fb>647797</fb>
+    <v>21</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Winnipeg</v>
+    <v>wjson{"t":"e","d":"City","e":["Winnipeg","Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="2">
+    <v>12</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>local map of Manitoba, Canada</v>
+  </rv>
+  <rv s="2">
+    <v>13</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>location map of Manitoba, Canada</v>
+  </rv>
+  <rv s="1">
+    <fb>1343371</fb>
+    <v>21</v>
+  </rv>
+  <rv s="1">
+    <fb>2.0737530430057562</fb>
+    <v>26</v>
+  </rv>
+  <rv s="2">
+    <v>14</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>population history of Manitoba, Canada</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 1, Manitoba, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo1","Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 10, Manitoba, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo10","Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 11, Manitoba, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo11","Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 12, Manitoba, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo12","Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 13, Manitoba, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo13","Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 14, Manitoba, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo14","Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 15, Manitoba, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo15","Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 16, Manitoba, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo16","Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 17, Manitoba, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo17","Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 18, Manitoba, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo18","Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 19, Manitoba, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo19","Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 2, Manitoba, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo2","Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 20, Manitoba, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo20","Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 21, Manitoba, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo21","Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 22, Manitoba, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo22","Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 23, Manitoba, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo23","Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 3, Manitoba, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo3","Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 4, Manitoba, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo4","Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 5, Manitoba, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo5","Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 6, Manitoba, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo6","Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 7, Manitoba, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo7","Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 8, Manitoba, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo8","Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 9, Manitoba, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo9","Manitoba","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="3">
+    <v>4</v>
+  </rv>
+  <rv s="4">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Manitoba","Canada"]}</v>
+    <v>536871168</v>
+    <v>1</v>
+    <v>24</v>
+    <v>25</v>
+    <v>Manitoba, Canada</v>
+    <v>4</v>
+    <v>5</v>
+    <v>City</v>
+    <v>6</v>
+    <v>7</v>
+    <v>20</v>
+    <v>238</v>
+    <v>239</v>
+    <v>3</v>
+    <v>240</v>
+    <v>241</v>
+    <v>Manitoba, Canada</v>
+    <v>3</v>
+    <v>242</v>
+    <v>243</v>
+    <v>244</v>
+    <v>268</v>
+    <v>Manitoba, Canada</v>
+    <v>Manitoba is a province of Canada at the longitudinal centre of the country. It is Canada's fifth–most populous province, with a population of 1,278,365 as of 2016.</v>
+    <v>administrative division</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Saskatchewan, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Saskatchewan","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="1">
+    <fb>651036</fb>
+    <v>21</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Regina</v>
+    <v>wjson{"t":"e","d":"City","e":["Regina","Saskatchewan","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="2">
+    <v>15</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>local map of Saskatchewan, Canada</v>
+  </rv>
+  <rv s="2">
+    <v>16</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>location map of Saskatchewan, Canada</v>
+  </rv>
+  <rv s="1">
+    <fb>1133637</fb>
+    <v>21</v>
+  </rv>
+  <rv s="1">
+    <fb>1.741281588114943</fb>
+    <v>26</v>
+  </rv>
+  <rv s="2">
+    <v>17</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>population history of Saskatchewan, Canada</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 1, Saskatchewan, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo1","Saskatchewan","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 10, Saskatchewan, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo10","Saskatchewan","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 11, Saskatchewan, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo11","Saskatchewan","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 12, Saskatchewan, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo12","Saskatchewan","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 13, Saskatchewan, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo13","Saskatchewan","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 14, Saskatchewan, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo14","Saskatchewan","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 15, Saskatchewan, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo15","Saskatchewan","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 16, Saskatchewan, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo16","Saskatchewan","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 17, Saskatchewan, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo17","Saskatchewan","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 18, Saskatchewan, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo18","Saskatchewan","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 2, Saskatchewan, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo2","Saskatchewan","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 3, Saskatchewan, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo3","Saskatchewan","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 4, Saskatchewan, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo4","Saskatchewan","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 5, Saskatchewan, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo5","Saskatchewan","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 6, Saskatchewan, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo6","Saskatchewan","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 7, Saskatchewan, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo7","Saskatchewan","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 8, Saskatchewan, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo8","Saskatchewan","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 9, Saskatchewan, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo9","Saskatchewan","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="3">
+    <v>5</v>
+  </rv>
+  <rv s="4">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Saskatchewan","Canada"]}</v>
+    <v>536871168</v>
+    <v>1</v>
+    <v>24</v>
+    <v>25</v>
+    <v>Saskatchewan, Canada</v>
+    <v>4</v>
+    <v>5</v>
+    <v>City</v>
+    <v>6</v>
+    <v>7</v>
+    <v>20</v>
+    <v>271</v>
+    <v>272</v>
+    <v>3</v>
+    <v>273</v>
+    <v>274</v>
+    <v>Saskatchewan, Canada</v>
+    <v>3</v>
+    <v>275</v>
+    <v>276</v>
+    <v>277</v>
+    <v>296</v>
+    <v>Saskatchewan, Canada</v>
+    <v>Saskatchewan is a prairie and boreal province in Western Canada, the middle of the three prairie provinces.</v>
+    <v>administrative division</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Nova Scotia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["NovaScotia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="1">
+    <fb>55284</fb>
+    <v>23</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Halifax</v>
+    <v>wjson{"t":"e","d":"City","e":["Halifax","NovaScotia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="2">
+    <v>18</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>local map of Nova Scotia, Canada</v>
+  </rv>
+  <rv s="2">
+    <v>19</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>location map of Nova Scotia, Canada</v>
+  </rv>
+  <rv s="1">
+    <fb>957600</fb>
+    <v>21</v>
+  </rv>
+  <rv s="1">
+    <fb>17.321467332320381</fb>
+    <v>23</v>
+  </rv>
+  <rv s="2">
+    <v>20</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>population history of Nova Scotia, Canada</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Annapolis, Nova Scotia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Annapolis","NovaScotia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Antigonish, Nova Scotia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Antigonish","NovaScotia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Cape Breton, Nova Scotia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["CapeBreton","NovaScotia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Colchester, Nova Scotia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Colchester","NovaScotia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Cumberland, Nova Scotia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Cumberland","NovaScotia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Digby, Nova Scotia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Digby","NovaScotia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Guysborough, Nova Scotia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Guysborough","NovaScotia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Halifax, Nova Scotia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Halifax","NovaScotia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Hants, Nova Scotia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Hants","NovaScotia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Inverness, Nova Scotia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Inverness","NovaScotia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Kings, Nova Scotia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Kings","NovaScotia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Lunenburg, Nova Scotia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Lunenburg","NovaScotia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Pictou, Nova Scotia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Pictou","NovaScotia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Queens, Nova Scotia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Queens","NovaScotia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Richmond, Nova Scotia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Richmond","NovaScotia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Shelburne, Nova Scotia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Shelburne","NovaScotia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Victoria, Nova Scotia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Victoria","NovaScotia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Yarmouth, Nova Scotia, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Yarmouth","NovaScotia","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="3">
+    <v>6</v>
+  </rv>
+  <rv s="4">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["NovaScotia","Canada"]}</v>
+    <v>536871168</v>
+    <v>1</v>
+    <v>24</v>
+    <v>25</v>
+    <v>Nova Scotia, Canada</v>
+    <v>4</v>
+    <v>5</v>
+    <v>City</v>
+    <v>6</v>
+    <v>7</v>
+    <v>20</v>
+    <v>299</v>
+    <v>300</v>
+    <v>3</v>
+    <v>301</v>
+    <v>302</v>
+    <v>Nova Scotia, Canada</v>
+    <v>3</v>
+    <v>303</v>
+    <v>304</v>
+    <v>305</v>
+    <v>324</v>
+    <v>Nova Scotia, Canada</v>
+    <v>Nova Scotia is one of the thirteen provinces and territories of Canada. It is one of the three Maritime provinces and one of the four Atlantic provinces. Nova Scotia is Latin for "New Scotland".</v>
+    <v>administrative division</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>New Brunswick, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["NewBrunswick","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="1">
+    <fb>72908</fb>
+    <v>23</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Fredericton</v>
+    <v>wjson{"t":"e","d":"City","e":["Fredericton","NewBrunswick","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="2">
+    <v>21</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>local map of New Brunswick, Canada</v>
+  </rv>
+  <rv s="2">
+    <v>22</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>location map of New Brunswick, Canada</v>
+  </rv>
+  <rv s="1">
+    <fb>760868</fb>
+    <v>21</v>
+  </rv>
+  <rv s="1">
+    <fb>10.436001536182586</fb>
+    <v>23</v>
+  </rv>
+  <rv s="2">
+    <v>23</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>population history of New Brunswick, Canada</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Albert, New Brunswick, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Albert","NewBrunswick","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Carleton, New Brunswick, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Carleton","NewBrunswick","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Charlotte, New Brunswick, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Charlotte","NewBrunswick","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Gloucester, New Brunswick, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Gloucester","NewBrunswick","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Kent, New Brunswick, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Kent","NewBrunswick","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Kings, New Brunswick, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Kings","NewBrunswick","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Madawaska, New Brunswick, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Madawaska","NewBrunswick","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Northumberland, New Brunswick, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Northumberland","NewBrunswick","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Queens, New Brunswick, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Queens","NewBrunswick","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Restigouche, New Brunswick, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Restigouche","NewBrunswick","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Saint John, New Brunswick, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["SaintJohn","NewBrunswick","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Sunbury, New Brunswick, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Sunbury","NewBrunswick","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Victoria, New Brunswick, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Victoria","NewBrunswick","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Westmorland, New Brunswick, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Westmorland","NewBrunswick","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>York, New Brunswick, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["York","NewBrunswick","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="3">
+    <v>7</v>
+  </rv>
+  <rv s="4">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["NewBrunswick","Canada"]}</v>
+    <v>536871168</v>
+    <v>1</v>
+    <v>24</v>
+    <v>25</v>
+    <v>New Brunswick, Canada</v>
+    <v>4</v>
+    <v>5</v>
+    <v>City</v>
+    <v>6</v>
+    <v>7</v>
+    <v>20</v>
+    <v>327</v>
+    <v>328</v>
+    <v>3</v>
+    <v>329</v>
+    <v>330</v>
+    <v>New Brunswick, Canada</v>
+    <v>3</v>
+    <v>331</v>
+    <v>332</v>
+    <v>333</v>
+    <v>349</v>
+    <v>New Brunswick, Canada</v>
+    <v>New Brunswick is one of the thirteen provinces and territories of Canada. It is one of the three Maritime provinces and one of the four Atlantic provinces. It is the only province with both French and English as its official languages.</v>
+    <v>administrative division</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Newfoundland and Labrador, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["NewfoundlandAndLabrador","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="1">
+    <fb>405212</fb>
+    <v>21</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>St. John's</v>
+    <v>wjson{"t":"e","d":"City","e":["SaintJohns","NewfoundlandAndLabrador","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="2">
+    <v>24</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>local map of Newfoundland and Labrador, Canada</v>
+  </rv>
+  <rv s="2">
+    <v>25</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>location map of Newfoundland and Labrador, Canada</v>
+  </rv>
+  <rv s="1">
+    <fb>528430</fb>
+    <v>21</v>
+  </rv>
+  <rv s="1">
+    <fb>1.3040828011016457</fb>
+    <v>26</v>
+  </rv>
+  <rv s="2">
+    <v>26</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>population history of Newfoundland and Labrador, Canada</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 1, Newfoundland and Labrador, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo1","NewfoundlandAndLabrador","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 10, Newfoundland and Labrador, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo10","NewfoundlandAndLabrador","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 11, Newfoundland and Labrador, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo11","NewfoundlandAndLabrador","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 2, Newfoundland and Labrador, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo2","NewfoundlandAndLabrador","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 3, Newfoundland and Labrador, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo3","NewfoundlandAndLabrador","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 4, Newfoundland and Labrador, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo4","NewfoundlandAndLabrador","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 5, Newfoundland and Labrador, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo5","NewfoundlandAndLabrador","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 6, Newfoundland and Labrador, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo6","NewfoundlandAndLabrador","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 7, Newfoundland and Labrador, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo7","NewfoundlandAndLabrador","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 8, Newfoundland and Labrador, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo8","NewfoundlandAndLabrador","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Division No. 9, Newfoundland and Labrador, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["DivisionNo9","NewfoundlandAndLabrador","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="3">
+    <v>8</v>
+  </rv>
+  <rv s="4">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["NewfoundlandAndLabrador","Canada"]}</v>
+    <v>536871168</v>
+    <v>1</v>
+    <v>24</v>
+    <v>25</v>
+    <v>Newfoundland and Labrador, Canada</v>
+    <v>4</v>
+    <v>5</v>
+    <v>City</v>
+    <v>6</v>
+    <v>7</v>
+    <v>20</v>
+    <v>352</v>
+    <v>353</v>
+    <v>3</v>
+    <v>354</v>
+    <v>355</v>
+    <v>Newfoundland and Labrador, Canada</v>
+    <v>3</v>
+    <v>356</v>
+    <v>357</v>
+    <v>358</v>
+    <v>370</v>
+    <v>Newfoundland and Labrador, Canada</v>
+    <v>Newfoundland and Labrador (sometimes abbreviated as NL) is the easternmost province of Canada, in the country's Atlantic region.</v>
+    <v>administrative division</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Prince Edward Island, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["PrinceEdwardIsland","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="1">
+    <fb>5660</fb>
+    <v>26</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Charlottetown</v>
+    <v>wjson{"t":"e","d":"City","e":["Charlottetown","PrinceEdwardIsland","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="2">
+    <v>27</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>local map of Prince Edward Island, Canada</v>
+  </rv>
+  <rv s="2">
+    <v>28</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>location map of Prince Edward Island, Canada</v>
+  </rv>
+  <rv s="1">
+    <fb>152784</fb>
+    <v>21</v>
+  </rv>
+  <rv s="1">
+    <fb>26.993639575971731</fb>
+    <v>23</v>
+  </rv>
+  <rv s="2">
+    <v>29</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>population history of Prince Edward Island, Canada</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Kings, Prince Edward Island, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Kings","PrinceEdwardIsland","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Prince, Prince Edward Island, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Prince","PrinceEdwardIsland","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Queens, Prince Edward Island, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Queens","PrinceEdwardIsland","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="3">
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["PrinceEdwardIsland","Canada"]}</v>
+    <v>536871168</v>
+    <v>1</v>
+    <v>24</v>
+    <v>25</v>
+    <v>Prince Edward Island, Canada</v>
+    <v>4</v>
+    <v>5</v>
+    <v>City</v>
+    <v>6</v>
+    <v>7</v>
+    <v>20</v>
+    <v>373</v>
+    <v>374</v>
+    <v>3</v>
+    <v>375</v>
+    <v>376</v>
+    <v>Prince Edward Island, Canada</v>
+    <v>3</v>
+    <v>377</v>
+    <v>378</v>
+    <v>379</v>
+    <v>383</v>
+    <v>Prince Edward Island, Canada</v>
+    <v>Prince Edward Island (PEI) is one of the thirteen provinces and territories of Canada. It is the smallest province in terms of land area and population, but the most densely populated.</v>
+    <v>administrative division</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Northwest Territories, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["NorthwestTerritories","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="1">
+    <fb>1346106</fb>
+    <v>21</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Yellowknife</v>
+    <v>wjson{"t":"e","d":"City","e":["Yellowknife","NorthwestTerritories","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="2">
+    <v>30</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>local map of Northwest Territories, Canada</v>
+  </rv>
+  <rv s="2">
+    <v>31</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>location map of Northwest Territories, Canada</v>
+  </rv>
+  <rv s="1">
+    <fb>40623</fb>
+    <v>21</v>
+  </rv>
+  <rv s="1">
+    <fb>3.0178158332256153E-2</fb>
+    <v>27</v>
+  </rv>
+  <rv s="2">
+    <v>32</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>population history of Northwest Territories, Canada</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Fort Smith, Northwest Territories, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["FortSmith","NorthwestTerritories","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Inuvik, Northwest Territories, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Inuvik","NorthwestTerritories","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="3">
+    <v>10</v>
+  </rv>
+  <rv s="4">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["NorthwestTerritories","Canada"]}</v>
+    <v>536871168</v>
+    <v>1</v>
+    <v>24</v>
+    <v>25</v>
+    <v>Northwest Territories, Canada</v>
+    <v>4</v>
+    <v>5</v>
+    <v>City</v>
+    <v>6</v>
+    <v>7</v>
+    <v>20</v>
+    <v>386</v>
+    <v>387</v>
+    <v>3</v>
+    <v>388</v>
+    <v>389</v>
+    <v>Northwest Territories, Canada</v>
+    <v>3</v>
+    <v>390</v>
+    <v>391</v>
+    <v>392</v>
+    <v>395</v>
+    <v>Northwest Territories, Canada</v>
+    <v>The Northwest Territories (commonly abbreviated as NT or NWT) is a federal territory of Canada.</v>
+    <v>administrative division</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Yukon Territory, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["YukonTerritory","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="1">
+    <fb>482443</fb>
+    <v>21</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Whitehorse</v>
+    <v>wjson{"t":"e","d":"City","e":["Whitehorse","YukonTerritory","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="2">
+    <v>33</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>local map of Yukon Territory, Canada</v>
+  </rv>
+  <rv s="2">
+    <v>34</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>location map of Yukon Territory, Canada</v>
+  </rv>
+  <rv s="1">
+    <fb>38669</fb>
+    <v>21</v>
+  </rv>
+  <rv s="1">
+    <fb>8.0152473971018337E-2</fb>
+    <v>27</v>
+  </rv>
+  <rv s="2">
+    <v>35</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>population history of Yukon Territory, Canada</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Yukon, Yukon Territory, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Yukon","YukonTerritory","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="3">
+    <v>11</v>
+  </rv>
+  <rv s="4">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["YukonTerritory","Canada"]}</v>
+    <v>536871168</v>
+    <v>1</v>
+    <v>1</v>
+    <v>2</v>
+    <v>Yukon Territory, Canada</v>
+    <v>4</v>
+    <v>5</v>
+    <v>City</v>
+    <v>6</v>
+    <v>7</v>
+    <v>20</v>
+    <v>398</v>
+    <v>399</v>
+    <v>3</v>
+    <v>400</v>
+    <v>401</v>
+    <v>Yukon Territory, Canada</v>
+    <v>3</v>
+    <v>402</v>
+    <v>403</v>
+    <v>404</v>
+    <v>406</v>
+    <v>Yukon Territory, Canada</v>
+    <v>Yukon (formerly called Yukon Territory and referred to by some as the Yukon) is the smallest and westernmost of Canada's three territories.</v>
+    <v>administrative division</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Nunavut, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Nunavut","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="1">
+    <fb>2093190</fb>
+    <v>21</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Iqaluit</v>
+    <v>wjson{"t":"e","d":"City","e":["Iqaluit","Nunavut","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="2">
+    <v>36</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>local map of Nunavut, Canada</v>
+  </rv>
+  <rv s="2">
+    <v>37</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>location map of Nunavut, Canada</v>
+  </rv>
+  <rv s="1">
+    <fb>38243</fb>
+    <v>21</v>
+  </rv>
+  <rv s="1">
+    <fb>1.8270200029619862E-2</fb>
+    <v>27</v>
+  </rv>
+  <rv s="2">
+    <v>38</v>
+    <v>6</v>
+    <v>22</v>
+    <v>1</v>
+    <v>population history of Nunavut, Canada</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Baffin, Nunavut, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Baffin","Nunavut","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Keewatin, Nunavut, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Keewatin","Nunavut","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="0">
+    <v>536871168</v>
+    <v>Kitikmeot, Nunavut, Canada</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Kitikmeot","Nunavut","Canada"]}</v>
+    <v>en-US</v>
+    <v>City</v>
+  </rv>
+  <rv s="3">
+    <v>12</v>
+  </rv>
+  <rv s="4">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>wjson{"t":"e","d":"AdministrativeDivision","e":["Nunavut","Canada"]}</v>
+    <v>536871168</v>
+    <v>1</v>
+    <v>24</v>
+    <v>25</v>
+    <v>Nunavut, Canada</v>
+    <v>4</v>
+    <v>5</v>
+    <v>City</v>
+    <v>6</v>
+    <v>7</v>
+    <v>20</v>
+    <v>409</v>
+    <v>410</v>
+    <v>3</v>
+    <v>411</v>
+    <v>412</v>
+    <v>Nunavut, Canada</v>
+    <v>3</v>
+    <v>413</v>
+    <v>414</v>
+    <v>415</v>
+    <v>419</v>
+    <v>Nunavut, Canada</v>
+    <v>Nunavut is the newest, largest, and northernmost territory of Canada.</v>
+    <v>administrative division</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+  <s t="_linkedentity2">
+    <k n="%EntityServiceId" t="i"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="_Icon" t="s"/>
+  </s>
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
+  <s t="_webimage">
+    <k n="WebImageIdentifier" t="i"/>
+    <k n="_Provider" t="spb"/>
+    <k n="Attribution" t="spb"/>
+    <k n="ComputedImage" t="b"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_linkedentity2core">
+    <k n="_CRID" t="e"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="_Attribution" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_Provider" t="spb"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="area" t="r"/>
+    <k n="capital city" t="r"/>
+    <k n="country/region" t="r"/>
+    <k n="local map" t="r"/>
+    <k n="location map" t="r"/>
+    <k n="name" t="s"/>
+    <k n="parent region" t="r"/>
+    <k n="population" t="r"/>
+    <k n="population density" t="r"/>
+    <k n="population history" t="r"/>
+    <k n="subdivisions" t="r"/>
+    <k n="UniqueName" t="s"/>
+    <k n="wikipedia summary text" t="s"/>
+    <k n="Wolfram data type" t="s"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="15">
+    <a count="28">
+      <v t="s">_ViewInfo</v>
+      <v t="s">%EntityServiceId</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Provider</v>
+      <v t="s">_Attribution</v>
+      <v t="s">country/region</v>
+      <v t="s">capital city</v>
+      <v t="s">wikipedia summary text</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">area</v>
+      <v t="s">parent region</v>
+      <v t="s">subdivisions</v>
+      <v t="s">population</v>
+      <v t="s">population density</v>
+      <v t="s">location map</v>
+      <v t="s">_Format</v>
+      <v t="s">local map</v>
+      <v t="s">population history</v>
+      <v t="s">_Display</v>
+      <v t="s">name</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">%DisambiguationText</v>
+      <v t="s">Wolfram data type</v>
+    </a>
+    <a count="1">
+      <v t="s">name</v>
+    </a>
+    <a count="4">
+      <v t="s">country/region</v>
+      <v t="s">capital city</v>
+      <v t="s">abbreviation</v>
+      <v t="s">wikipedia summary text</v>
+    </a>
+    <a count="5">
+      <v t="s">area</v>
+      <v t="s">land area</v>
+      <v t="s">mean elevation</v>
+      <v t="s">parent region</v>
+      <v t="s">subdivisions</v>
+    </a>
+    <a count="18">
+      <v t="s">population</v>
+      <v t="s">population density</v>
+      <v t="s">annual deaths</v>
+      <v t="s">annual births</v>
+      <v t="s">population age 0 to 4</v>
+      <v t="s">population age 5 to 17</v>
+      <v t="s">population age 18 to 64</v>
+      <v t="s">population age 65 and above</v>
+      <v t="s">male population</v>
+      <v t="s">female population</v>
+      <v t="s">population by race, white alone</v>
+      <v t="s">population by race, black or African American alone</v>
+      <v t="s">population by race, American Indian and Alaska native alone</v>
+      <v t="s">population by race, Asian alone</v>
+      <v t="s">population by race, native Hawaiian and other Pacific Islander alone</v>
+      <v t="s">population by race, some other race alone</v>
+      <v t="s">population by race, two or more races</v>
+      <v t="s">households</v>
+    </a>
+    <a count="7">
+      <v t="s">population by educational attainment, high school diploma</v>
+      <v t="s">population by educational attainment, some college</v>
+      <v t="s">population by educational attainment, associate degree</v>
+      <v t="s">population by educational attainment, bachelor's degree</v>
+      <v t="s">population by educational attainment, master's degree</v>
+      <v t="s">population by educational attainment, doctorate degree</v>
+      <v t="s">population by educational attainment, professional school degree</v>
+    </a>
+    <a count="4">
+      <v t="s">population by marital status, never married</v>
+      <v t="s">population by marital status, now married</v>
+      <v t="s">population by marital status, widowed</v>
+      <v t="s">population by marital status, divorced</v>
+    </a>
+    <a count="10">
+      <v t="s">median household income</v>
+      <v t="s">per capita income</v>
+      <v t="s">aggregate household income</v>
+      <v t="s">population fraction below poverty line</v>
+      <v t="s">Gini index</v>
+      <v t="s">households with income $0 to $25,000</v>
+      <v t="s">households with income $25,000 to $50,000</v>
+      <v t="s">households with income $50,000 to $100,000</v>
+      <v t="s">households with income $100,000 to $200,000</v>
+      <v t="s">households with income $200,000 and above</v>
+    </a>
+    <a count="2">
+      <v t="s">total rate of crime</v>
+      <v t="s">total number of crimes</v>
+    </a>
+    <a count="1">
+      <v t="s">flag</v>
+    </a>
+    <a count="1">
+      <v t="s">location map</v>
+    </a>
+    <a count="1">
+      <v t="s">local map</v>
+    </a>
+    <a count="1">
+      <v t="s">population history</v>
+    </a>
+    <a count="12">
+      <v t="spb">8</v>
+      <v t="spb">9</v>
+      <v t="spb">10</v>
+      <v t="spb">11</v>
+      <v t="spb">12</v>
+      <v t="spb">13</v>
+      <v t="spb">14</v>
+      <v t="spb">15</v>
+      <v t="spb">16</v>
+      <v t="spb">17</v>
+      <v t="spb">18</v>
+      <v t="spb">19</v>
+    </a>
+    <a count="27">
+      <v t="s">_ViewInfo</v>
+      <v t="s">%EntityServiceId</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Provider</v>
+      <v t="s">_Attribution</v>
+      <v t="s">country/region</v>
+      <v t="s">capital city</v>
+      <v t="s">wikipedia summary text</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">area</v>
+      <v t="s">parent region</v>
+      <v t="s">subdivisions</v>
+      <v t="s">population</v>
+      <v t="s">population density</v>
+      <v t="s">location map</v>
+      <v t="s">_Format</v>
+      <v t="s">local map</v>
+      <v t="s">population history</v>
+      <v t="s">_Display</v>
+      <v t="s">name</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">Wolfram data type</v>
+    </a>
+  </spbArrays>
+  <spbData count="28">
+    <spb s="0">
+      <v xml:space="preserve">Wolfram Knowledgebase	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">https://www.wolfram.com/knowledgebase/source-information/?page=AdministrativeDivisionData	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>0</v>
+      <v>name</v>
+    </spb>
+    <spb s="3">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="4">
+      <v>3</v>
+    </spb>
+    <spb s="5">
+      <v>1</v>
+      <v>2</v>
+    </spb>
+    <spb s="6">
+      <v>https://www.wolfram.com/microsoft-integration/excel/</v>
+      <v>https://mswolfram-prod-tm.office.net/webKernel/Resources/Images/wa-ms-logo.png</v>
+      <v>Powered by Wolfram</v>
+    </spb>
+    <spb s="7">
+      <v>kilometers squared</v>
+      <v>people</v>
+      <v>people per kilometer squared</v>
+    </spb>
+    <spb s="8">
+      <v>1</v>
+    </spb>
+    <spb s="9">
+      <v>Basic information</v>
+      <v>2</v>
+    </spb>
+    <spb s="9">
+      <v>Geography</v>
+      <v>3</v>
+    </spb>
+    <spb s="9">
+      <v>Demographics</v>
+      <v>4</v>
+    </spb>
+    <spb s="9">
+      <v>Educational Attainment</v>
+      <v>5</v>
+    </spb>
+    <spb s="9">
+      <v>Marital Status</v>
+      <v>6</v>
+    </spb>
+    <spb s="9">
+      <v>Income</v>
+      <v>7</v>
+    </spb>
+    <spb s="9">
+      <v>Crime</v>
+      <v>8</v>
+    </spb>
+    <spb s="9">
+      <v>Flag Image</v>
+      <v>9</v>
+    </spb>
+    <spb s="9">
+      <v>Location Image</v>
+      <v>10</v>
+    </spb>
+    <spb s="9">
+      <v>Local Map</v>
+      <v>11</v>
+    </spb>
+    <spb s="9">
+      <v>Population History</v>
+      <v>12</v>
+    </spb>
+    <spb s="10">
+      <v>13</v>
+    </spb>
+    <spb s="11">
+      <v>3</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wolfram	</v>
+      <v xml:space="preserve">© Wolfram	</v>
+      <v xml:space="preserve">https://www.wolframalpha.com	</v>
+      <v xml:space="preserve">https://www.wolframalpha.com	</v>
+    </spb>
+    <spb s="11">
+      <v>4</v>
+    </spb>
+    <spb s="12">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>14</v>
+      <v>name</v>
+    </spb>
+    <spb s="11">
+      <v>5</v>
+    </spb>
+    <spb s="11">
+      <v>6</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="13">
+  <s>
+    <k n="SourceText" t="s"/>
+    <k n="LicenseText" t="s"/>
+    <k n="SourceAddress" t="s"/>
+    <k n="LicenseAddress" t="s"/>
+  </s>
+  <s>
+    <k n="area" t="spb"/>
+    <k n="name" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="population" t="spb"/>
+    <k n="capital city" t="spb"/>
+    <k n="parent region" t="spb"/>
+    <k n="country/region" t="spb"/>
+    <k n="Wolfram data type" t="spb"/>
+    <k n="population density" t="spb"/>
+    <k n="`%DisambiguationText" t="spb"/>
+    <k n="wikipedia summary text" t="spb"/>
+  </s>
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="UniqueName" t="spb"/>
+  </s>
+  <s>
+    <k n="name" t="i"/>
+    <k n="location map" t="i"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+  <s>
+    <k n="area" t="s"/>
+    <k n="population" t="s"/>
+    <k n="population density" t="s"/>
+  </s>
+  <s>
+    <k n="fields" t="spba"/>
+  </s>
+  <s>
+    <k n="title" t="s"/>
+    <k n="fields" t="spba"/>
+  </s>
+  <s>
+    <k n="pods" t="spba"/>
+  </s>
+  <s>
+    <k n="_Self" t="i"/>
+  </s>
+  <s>
+    <k n="area" t="spb"/>
+    <k n="name" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="population" t="spb"/>
+    <k n="capital city" t="spb"/>
+    <k n="parent region" t="spb"/>
+    <k n="country/region" t="spb"/>
+    <k n="Wolfram data type" t="spb"/>
+    <k n="population density" t="spb"/>
+    <k n="wikipedia summary text" t="spb"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="3">
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="IsTitleField" t="b"/>
+    <rPr n="IsHeroField" t="b"/>
+    <rPr n="NumberFormat" t="s"/>
+  </richProperties>
+  <richStyles>
+    <rSty>
+      <rpv i="0">1</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="2">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="1">
+      <rpv i="2">#,##0.0</rpv>
+    </rSty>
+    <rSty dxfid="2">
+      <rpv i="2">#,##0.00</rpv>
+    </rSty>
+    <rSty dxfid="1">
+      <rpv i="2">#,##0.0000</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,19 +4838,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C59670B-B2AF-471F-9774-7E9E1F46BC9A}">
-  <dimension ref="A1:N10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFF4783-517F-4A39-85F3-50E748E02723}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D19" sqref="D19:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C9F3F4-0480-426A-AA32-BDE086E3396F}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2015</v>
       </c>
@@ -476,191 +4954,185 @@
       <c r="F1">
         <v>2019</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>15473</v>
+        <v>1924</v>
       </c>
       <c r="C2" s="3">
-        <v>16621</v>
+        <v>1948</v>
       </c>
       <c r="D2" s="3">
-        <v>16751</v>
+        <v>2031</v>
       </c>
       <c r="E2" s="3">
-        <v>17124</v>
+        <v>2116</v>
       </c>
       <c r="F2" s="3">
-        <v>17564</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
-        <v>11158</v>
+        <v>1541</v>
       </c>
       <c r="C3" s="3">
-        <v>12321</v>
+        <v>1593</v>
       </c>
       <c r="D3" s="3">
-        <v>13124</v>
+        <v>1665</v>
       </c>
       <c r="E3" s="3">
-        <v>13457</v>
+        <v>1721</v>
       </c>
       <c r="F3" s="3">
-        <v>13761</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>10521</v>
+        <v>1031</v>
       </c>
       <c r="C4" s="3">
-        <v>11624</v>
+        <v>1086</v>
       </c>
       <c r="D4" s="3">
-        <v>12197</v>
+        <v>1193</v>
       </c>
       <c r="E4" s="3">
-        <v>12341</v>
+        <v>1209</v>
       </c>
       <c r="F4" s="3">
-        <v>12431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>9351</v>
+        <v>521</v>
       </c>
       <c r="C5" s="3">
-        <v>9121</v>
+        <v>579</v>
       </c>
       <c r="D5" s="3">
-        <v>9456</v>
+        <v>586</v>
       </c>
       <c r="E5" s="3">
-        <v>9521</v>
+        <v>588</v>
       </c>
       <c r="F5" s="3">
-        <v>9874</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>13231</v>
+        <v>453</v>
       </c>
       <c r="C6" s="3">
-        <v>12321</v>
+        <v>456</v>
       </c>
       <c r="D6" s="3">
-        <v>13354</v>
+        <v>491</v>
       </c>
       <c r="E6" s="3">
-        <v>13831</v>
+        <v>504</v>
       </c>
       <c r="F6" s="3">
-        <v>14021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
-        <v>9542</v>
+        <v>465</v>
       </c>
       <c r="C7" s="3">
-        <v>10021</v>
+        <v>473</v>
       </c>
       <c r="D7" s="3">
-        <v>9547</v>
+        <v>486</v>
       </c>
       <c r="E7" s="3">
-        <v>10531</v>
+        <v>539</v>
       </c>
       <c r="F7" s="3">
-        <v>10958</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
-        <v>8456</v>
+        <v>931</v>
       </c>
       <c r="C8" s="3">
-        <v>9321</v>
+        <v>949</v>
       </c>
       <c r="D8" s="3">
-        <v>9340</v>
+        <v>986</v>
       </c>
       <c r="E8" s="3">
-        <v>9845</v>
+        <v>1011</v>
       </c>
       <c r="F8" s="3">
-        <v>10121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
-        <v>3284</v>
+        <v>762</v>
       </c>
       <c r="C9" s="3">
-        <v>3055</v>
+        <v>863</v>
       </c>
       <c r="D9" s="3">
-        <v>3254</v>
+        <v>755</v>
       </c>
       <c r="E9" s="3">
-        <v>3124</v>
+        <v>764</v>
       </c>
       <c r="F9" s="3">
-        <v>3154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3">
-        <v>81016</v>
+        <v>7628</v>
       </c>
       <c r="C10" s="3">
-        <v>84405</v>
+        <v>7947</v>
       </c>
       <c r="D10" s="3">
-        <v>87023</v>
+        <v>8193</v>
       </c>
       <c r="E10" s="3">
-        <v>89774</v>
+        <v>8452</v>
       </c>
       <c r="F10" s="3">
-        <v>91884</v>
+        <v>8651</v>
       </c>
     </row>
   </sheetData>
@@ -668,7 +5140,855 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DD6FD9-94CF-4A44-B6E8-46CA4CCBA01D}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2015</v>
+      </c>
+      <c r="C1">
+        <v>2016</v>
+      </c>
+      <c r="D1">
+        <v>2017</v>
+      </c>
+      <c r="E1">
+        <v>2018</v>
+      </c>
+      <c r="F1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1724</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1736</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1811</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1893</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1341</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1398</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1461</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1496</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>631</v>
+      </c>
+      <c r="C4" s="3">
+        <v>651</v>
+      </c>
+      <c r="D4" s="3">
+        <v>668</v>
+      </c>
+      <c r="E4" s="3">
+        <v>703</v>
+      </c>
+      <c r="F4" s="3">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>421</v>
+      </c>
+      <c r="C5" s="3">
+        <v>436</v>
+      </c>
+      <c r="D5" s="3">
+        <v>449</v>
+      </c>
+      <c r="E5" s="3">
+        <v>476</v>
+      </c>
+      <c r="F5" s="3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>553</v>
+      </c>
+      <c r="C6" s="3">
+        <v>681</v>
+      </c>
+      <c r="D6" s="3">
+        <v>695</v>
+      </c>
+      <c r="E6" s="3">
+        <v>716</v>
+      </c>
+      <c r="F6" s="3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>265</v>
+      </c>
+      <c r="C7" s="3">
+        <v>273</v>
+      </c>
+      <c r="D7" s="3">
+        <v>282</v>
+      </c>
+      <c r="E7" s="3">
+        <v>302</v>
+      </c>
+      <c r="F7" s="3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
+        <v>931</v>
+      </c>
+      <c r="C8" s="3">
+        <v>955</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1018</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1016</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
+        <v>730</v>
+      </c>
+      <c r="C9" s="3">
+        <v>742</v>
+      </c>
+      <c r="D9" s="3">
+        <v>702</v>
+      </c>
+      <c r="E9" s="3">
+        <v>708</v>
+      </c>
+      <c r="F9" s="3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6596</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6872</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7086</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7310</v>
+      </c>
+      <c r="F10" s="3">
+        <v>7481</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C841B7B0-2020-4FDC-B831-BFFB8B247BF3}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2015</v>
+      </c>
+      <c r="C1">
+        <v>2016</v>
+      </c>
+      <c r="D1">
+        <v>2017</v>
+      </c>
+      <c r="E1">
+        <v>2018</v>
+      </c>
+      <c r="F1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1424</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1439</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1489</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1498</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1041</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1086</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1123</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1143</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>601</v>
+      </c>
+      <c r="C4" s="3">
+        <v>623</v>
+      </c>
+      <c r="D4" s="3">
+        <v>646</v>
+      </c>
+      <c r="E4" s="3">
+        <v>658</v>
+      </c>
+      <c r="F4" s="3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>401</v>
+      </c>
+      <c r="C5" s="3">
+        <v>429</v>
+      </c>
+      <c r="D5" s="3">
+        <v>459</v>
+      </c>
+      <c r="E5" s="3">
+        <v>467</v>
+      </c>
+      <c r="F5" s="3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>553</v>
+      </c>
+      <c r="C6" s="3">
+        <v>573</v>
+      </c>
+      <c r="D6" s="3">
+        <v>611</v>
+      </c>
+      <c r="E6" s="3">
+        <v>633</v>
+      </c>
+      <c r="F6" s="3">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>225</v>
+      </c>
+      <c r="C7" s="3">
+        <v>239</v>
+      </c>
+      <c r="D7" s="3">
+        <v>261</v>
+      </c>
+      <c r="E7" s="3">
+        <v>279</v>
+      </c>
+      <c r="F7" s="3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
+        <v>731</v>
+      </c>
+      <c r="C8" s="3">
+        <v>789</v>
+      </c>
+      <c r="D8" s="3">
+        <v>801</v>
+      </c>
+      <c r="E8" s="3">
+        <v>859</v>
+      </c>
+      <c r="F8" s="3">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
+        <v>362</v>
+      </c>
+      <c r="C9" s="3">
+        <v>383</v>
+      </c>
+      <c r="D9" s="3">
+        <v>344</v>
+      </c>
+      <c r="E9" s="3">
+        <v>378</v>
+      </c>
+      <c r="F9" s="3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5338</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5561</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5734</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5915</v>
+      </c>
+      <c r="F10" s="3">
+        <v>6054</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C97D34-9CA2-49EF-B55F-A11654448A8B}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2015</v>
+      </c>
+      <c r="C1">
+        <v>2016</v>
+      </c>
+      <c r="D1">
+        <v>2017</v>
+      </c>
+      <c r="E1">
+        <v>2018</v>
+      </c>
+      <c r="F1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1124</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1149</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1153</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1189</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>910</v>
+      </c>
+      <c r="C3" s="3">
+        <v>945</v>
+      </c>
+      <c r="D3" s="3">
+        <v>952</v>
+      </c>
+      <c r="E3" s="3">
+        <v>984</v>
+      </c>
+      <c r="F3" s="3">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>512</v>
+      </c>
+      <c r="C4" s="3">
+        <v>546</v>
+      </c>
+      <c r="D4" s="3">
+        <v>559</v>
+      </c>
+      <c r="E4" s="3">
+        <v>586</v>
+      </c>
+      <c r="F4" s="3">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>389</v>
+      </c>
+      <c r="C5" s="3">
+        <v>394</v>
+      </c>
+      <c r="D5" s="3">
+        <v>411</v>
+      </c>
+      <c r="E5" s="3">
+        <v>426</v>
+      </c>
+      <c r="F5" s="3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>431</v>
+      </c>
+      <c r="C6" s="3">
+        <v>476</v>
+      </c>
+      <c r="D6" s="3">
+        <v>479</v>
+      </c>
+      <c r="E6" s="3">
+        <v>496</v>
+      </c>
+      <c r="F6" s="3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>101</v>
+      </c>
+      <c r="C7" s="3">
+        <v>113</v>
+      </c>
+      <c r="D7" s="3">
+        <v>121</v>
+      </c>
+      <c r="E7" s="3">
+        <v>139</v>
+      </c>
+      <c r="F7" s="3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
+        <v>503</v>
+      </c>
+      <c r="C8" s="3">
+        <v>512</v>
+      </c>
+      <c r="D8" s="3">
+        <v>524</v>
+      </c>
+      <c r="E8" s="3">
+        <v>539</v>
+      </c>
+      <c r="F8" s="3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
+        <v>311</v>
+      </c>
+      <c r="C9" s="3">
+        <v>325</v>
+      </c>
+      <c r="D9" s="3">
+        <v>399</v>
+      </c>
+      <c r="E9" s="3">
+        <v>385</v>
+      </c>
+      <c r="F9" s="3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4281</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4460</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4598</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4744</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4855</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41ABAB45-E041-4313-AC9D-C420D20F1B37}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2015</v>
+      </c>
+      <c r="C1">
+        <v>2016</v>
+      </c>
+      <c r="D1">
+        <v>2017</v>
+      </c>
+      <c r="E1">
+        <v>2018</v>
+      </c>
+      <c r="F1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>924</v>
+      </c>
+      <c r="C2" s="3">
+        <v>946</v>
+      </c>
+      <c r="D2" s="3">
+        <v>959</v>
+      </c>
+      <c r="E2" s="3">
+        <v>969</v>
+      </c>
+      <c r="F2" s="3">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>710</v>
+      </c>
+      <c r="C3" s="3">
+        <v>731</v>
+      </c>
+      <c r="D3" s="3">
+        <v>734</v>
+      </c>
+      <c r="E3" s="3">
+        <v>748</v>
+      </c>
+      <c r="F3" s="3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>312</v>
+      </c>
+      <c r="C4" s="3">
+        <v>329</v>
+      </c>
+      <c r="D4" s="3">
+        <v>336</v>
+      </c>
+      <c r="E4" s="3">
+        <v>356</v>
+      </c>
+      <c r="F4" s="3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>189</v>
+      </c>
+      <c r="C5" s="3">
+        <v>195</v>
+      </c>
+      <c r="D5" s="3">
+        <v>203</v>
+      </c>
+      <c r="E5" s="3">
+        <v>226</v>
+      </c>
+      <c r="F5" s="3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>231</v>
+      </c>
+      <c r="C6" s="3">
+        <v>249</v>
+      </c>
+      <c r="D6" s="3">
+        <v>253</v>
+      </c>
+      <c r="E6" s="3">
+        <v>279</v>
+      </c>
+      <c r="F6" s="3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>53</v>
+      </c>
+      <c r="C7" s="3">
+        <v>62</v>
+      </c>
+      <c r="D7" s="3">
+        <v>72</v>
+      </c>
+      <c r="E7" s="3">
+        <v>89</v>
+      </c>
+      <c r="F7" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
+        <v>203</v>
+      </c>
+      <c r="C8" s="3">
+        <v>222</v>
+      </c>
+      <c r="D8" s="3">
+        <v>241</v>
+      </c>
+      <c r="E8" s="3">
+        <v>279</v>
+      </c>
+      <c r="F8" s="3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
+        <v>261</v>
+      </c>
+      <c r="C9" s="3">
+        <v>269</v>
+      </c>
+      <c r="D9" s="3">
+        <v>299</v>
+      </c>
+      <c r="E9" s="3">
+        <v>249</v>
+      </c>
+      <c r="F9" s="3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2883</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3003</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3097</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3195</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C64D625-EA35-4711-BAC6-1FD8FDC353C6}">
   <dimension ref="A1:M10"/>
   <sheetViews>
@@ -676,9 +5996,9 @@
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2015</v>
       </c>
@@ -695,9 +6015,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>121</v>
@@ -720,9 +6040,9 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>141</v>
@@ -740,9 +6060,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3">
         <v>46</v>
@@ -760,9 +6080,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
         <v>87</v>
@@ -780,9 +6100,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
         <v>97</v>
@@ -800,9 +6120,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
         <v>25</v>
@@ -820,9 +6140,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
         <v>102</v>
@@ -840,9 +6160,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
         <v>250</v>
@@ -860,9 +6180,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3">
         <v>869</v>
@@ -886,7 +6206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3352AB0-1E30-4939-9AE6-42B25771632E}">
   <dimension ref="A1:M10"/>
   <sheetViews>
@@ -894,9 +6214,9 @@
       <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2015</v>
       </c>
@@ -913,9 +6233,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>31</v>
@@ -938,9 +6258,9 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>29</v>
@@ -958,9 +6278,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3">
         <v>11</v>
@@ -978,9 +6298,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
         <v>5</v>
@@ -998,9 +6318,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
         <v>15</v>
@@ -1018,9 +6338,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
         <v>3</v>
@@ -1038,9 +6358,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
         <v>43</v>
@@ -1058,9 +6378,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
         <v>112</v>
@@ -1078,9 +6398,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3">
         <v>249</v>
@@ -1103,7 +6423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA032FA-8F5C-4412-A823-43095116698A}">
   <dimension ref="A1:M10"/>
   <sheetViews>
@@ -1111,9 +6431,9 @@
       <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2015</v>
       </c>
@@ -1130,9 +6450,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>31</v>
@@ -1155,9 +6475,9 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>29</v>
@@ -1175,9 +6495,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3">
         <v>9</v>
@@ -1195,9 +6515,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
         <v>5</v>
@@ -1215,9 +6535,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
         <v>15</v>
@@ -1235,9 +6555,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -1255,9 +6575,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
         <v>39</v>
@@ -1275,9 +6595,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
         <v>99</v>
@@ -1295,9 +6615,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3">
         <v>228</v>
@@ -1320,7 +6640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0EB009-FD06-4F7C-A793-565F9D0D17F9}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -1328,9 +6648,9 @@
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2015</v>
       </c>
@@ -1347,9 +6667,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>29</v>
@@ -1367,9 +6687,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>26</v>
@@ -1387,9 +6707,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3">
         <v>9</v>
@@ -1407,9 +6727,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -1427,9 +6747,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
         <v>15</v>
@@ -1447,9 +6767,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -1467,9 +6787,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
         <v>36</v>
@@ -1487,9 +6807,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
         <v>99</v>
@@ -1507,9 +6827,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3">
         <v>218</v>
@@ -1533,6 +6853,879 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160273E6-17B8-44A8-860D-02250168E87B}">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2</f>
+        <v>M1Y1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C36" si="0">A3&amp;B3</f>
+        <v>M1Y2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>M1Y3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>M1Y4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>M1Y5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>M2Y1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>M2Y2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>M2Y3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>M2Y4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>M2Y5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>M3Y1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>M3Y2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>M3Y3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>M3Y4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>M3Y5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>M4Y1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>M4Y2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>M4Y3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>M4Y4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>M4Y5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>M5Y1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>M5Y2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>M5Y3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>M5Y4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>M5Y5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>M6Y1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>M6Y2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>M6Y3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>M6Y4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>M6Y5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>M7Y1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>M7Y2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>M7Y3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>M7Y4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>M7Y5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D2C243-ABAA-44AA-ABBA-F56F41BA1897}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8651A32-43D2-43D8-B3CF-A0FDEEDC794A}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB33C8B5-5F73-459C-9C11-58E251AB09B1}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C59670B-B2AF-471F-9774-7E9E1F46BC9A}">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2015</v>
+      </c>
+      <c r="C1">
+        <v>2016</v>
+      </c>
+      <c r="D1">
+        <v>2017</v>
+      </c>
+      <c r="E1">
+        <v>2018</v>
+      </c>
+      <c r="F1">
+        <v>2019</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>15473</v>
+      </c>
+      <c r="C2" s="3">
+        <v>16621</v>
+      </c>
+      <c r="D2" s="3">
+        <v>16751</v>
+      </c>
+      <c r="E2" s="3">
+        <v>17124</v>
+      </c>
+      <c r="F2" s="3">
+        <v>17564</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>11158</v>
+      </c>
+      <c r="C3" s="3">
+        <v>12321</v>
+      </c>
+      <c r="D3" s="3">
+        <v>13124</v>
+      </c>
+      <c r="E3" s="3">
+        <v>13457</v>
+      </c>
+      <c r="F3" s="3">
+        <v>13761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10521</v>
+      </c>
+      <c r="C4" s="3">
+        <v>11624</v>
+      </c>
+      <c r="D4" s="3">
+        <v>12197</v>
+      </c>
+      <c r="E4" s="3">
+        <v>12341</v>
+      </c>
+      <c r="F4" s="3">
+        <v>12431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9351</v>
+      </c>
+      <c r="C5" s="3">
+        <v>9121</v>
+      </c>
+      <c r="D5" s="3">
+        <v>9456</v>
+      </c>
+      <c r="E5" s="3">
+        <v>9521</v>
+      </c>
+      <c r="F5" s="3">
+        <v>9874</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>13231</v>
+      </c>
+      <c r="C6" s="3">
+        <v>12321</v>
+      </c>
+      <c r="D6" s="3">
+        <v>13354</v>
+      </c>
+      <c r="E6" s="3">
+        <v>13831</v>
+      </c>
+      <c r="F6" s="3">
+        <v>14021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>9542</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10021</v>
+      </c>
+      <c r="D7" s="3">
+        <v>9547</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10531</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10958</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
+        <v>8456</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9321</v>
+      </c>
+      <c r="D8" s="3">
+        <v>9340</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9845</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3284</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3055</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3254</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3124</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3">
+        <v>81016</v>
+      </c>
+      <c r="C10" s="3">
+        <v>84405</v>
+      </c>
+      <c r="D10" s="3">
+        <v>87023</v>
+      </c>
+      <c r="E10" s="3">
+        <v>89774</v>
+      </c>
+      <c r="F10" s="3">
+        <v>91884</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077E08D7-9F9C-41FB-9214-15C02125730B}">
   <dimension ref="A1:N10"/>
   <sheetViews>
@@ -1540,9 +7733,9 @@
       <selection activeCell="J2" sqref="J2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2015</v>
       </c>
@@ -1559,9 +7752,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>7571</v>
@@ -1584,9 +7777,9 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>7789</v>
@@ -1604,9 +7797,9 @@
         <v>8391</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3">
         <v>7321</v>
@@ -1624,9 +7817,9 @@
         <v>8547</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
         <v>5531</v>
@@ -1644,9 +7837,9 @@
         <v>6796</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
         <v>4755</v>
@@ -1664,9 +7857,9 @@
         <v>5761</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
         <v>4321</v>
@@ -1684,9 +7877,9 @@
         <v>4835</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
         <v>6474</v>
@@ -1704,9 +7897,9 @@
         <v>7431</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
         <v>3124</v>
@@ -1724,9 +7917,9 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3">
         <v>46886</v>
@@ -1749,7 +7942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86F3708-E104-44F9-A649-AE639466F105}">
   <dimension ref="A1:N10"/>
   <sheetViews>
@@ -1757,9 +7950,9 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2015</v>
       </c>
@@ -1776,9 +7969,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>4756</v>
@@ -1801,9 +7994,9 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>5147</v>
@@ -1821,9 +8014,9 @@
         <v>5792</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3">
         <v>6845</v>
@@ -1841,9 +8034,9 @@
         <v>7248</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
         <v>2145</v>
@@ -1861,9 +8054,9 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
         <v>1247</v>
@@ -1881,9 +8074,9 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
         <v>4756</v>
@@ -1901,9 +8094,9 @@
         <v>5211</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
         <v>1921</v>
@@ -1921,9 +8114,9 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
         <v>1352</v>
@@ -1941,9 +8134,9 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3">
         <v>28169</v>
@@ -1967,7 +8160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE69825-DB66-44B8-9A77-7839B2EEF375}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -1975,9 +8168,9 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2015</v>
       </c>
@@ -1994,9 +8187,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>5321</v>
@@ -2015,9 +8208,9 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>4146</v>
@@ -2035,9 +8228,9 @@
         <v>4592</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3">
         <v>3546</v>
@@ -2055,9 +8248,9 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
         <v>2021</v>
@@ -2075,9 +8268,9 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
         <v>1453</v>
@@ -2095,9 +8288,9 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
         <v>3121</v>
@@ -2115,9 +8308,9 @@
         <v>3519</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
         <v>3145</v>
@@ -2135,9 +8328,9 @@
         <v>3684</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
         <v>1935</v>
@@ -2155,9 +8348,9 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3">
         <v>24688</v>
@@ -2173,1066 +8366,6 @@
       </c>
       <c r="F10" s="3">
         <v>28000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C9F3F4-0480-426A-AA32-BDE086E3396F}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1">
-        <v>2015</v>
-      </c>
-      <c r="C1">
-        <v>2016</v>
-      </c>
-      <c r="D1">
-        <v>2017</v>
-      </c>
-      <c r="E1">
-        <v>2018</v>
-      </c>
-      <c r="F1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1924</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1948</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2031</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2116</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1541</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1593</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1665</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1721</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1031</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1086</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1193</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1209</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>521</v>
-      </c>
-      <c r="C5" s="3">
-        <v>579</v>
-      </c>
-      <c r="D5" s="3">
-        <v>586</v>
-      </c>
-      <c r="E5" s="3">
-        <v>588</v>
-      </c>
-      <c r="F5" s="3">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>453</v>
-      </c>
-      <c r="C6" s="3">
-        <v>456</v>
-      </c>
-      <c r="D6" s="3">
-        <v>491</v>
-      </c>
-      <c r="E6" s="3">
-        <v>504</v>
-      </c>
-      <c r="F6" s="3">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>465</v>
-      </c>
-      <c r="C7" s="3">
-        <v>473</v>
-      </c>
-      <c r="D7" s="3">
-        <v>486</v>
-      </c>
-      <c r="E7" s="3">
-        <v>539</v>
-      </c>
-      <c r="F7" s="3">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>931</v>
-      </c>
-      <c r="C8" s="3">
-        <v>949</v>
-      </c>
-      <c r="D8" s="3">
-        <v>986</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1011</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>762</v>
-      </c>
-      <c r="C9" s="3">
-        <v>863</v>
-      </c>
-      <c r="D9" s="3">
-        <v>755</v>
-      </c>
-      <c r="E9" s="3">
-        <v>764</v>
-      </c>
-      <c r="F9" s="3">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>7628</v>
-      </c>
-      <c r="C10" s="3">
-        <v>7947</v>
-      </c>
-      <c r="D10" s="3">
-        <v>8193</v>
-      </c>
-      <c r="E10" s="3">
-        <v>8452</v>
-      </c>
-      <c r="F10" s="3">
-        <v>8651</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DD6FD9-94CF-4A44-B6E8-46CA4CCBA01D}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1">
-        <v>2015</v>
-      </c>
-      <c r="C1">
-        <v>2016</v>
-      </c>
-      <c r="D1">
-        <v>2017</v>
-      </c>
-      <c r="E1">
-        <v>2018</v>
-      </c>
-      <c r="F1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1724</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1736</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1811</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1893</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1341</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1398</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1461</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1496</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>631</v>
-      </c>
-      <c r="C4" s="3">
-        <v>651</v>
-      </c>
-      <c r="D4" s="3">
-        <v>668</v>
-      </c>
-      <c r="E4" s="3">
-        <v>703</v>
-      </c>
-      <c r="F4" s="3">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>421</v>
-      </c>
-      <c r="C5" s="3">
-        <v>436</v>
-      </c>
-      <c r="D5" s="3">
-        <v>449</v>
-      </c>
-      <c r="E5" s="3">
-        <v>476</v>
-      </c>
-      <c r="F5" s="3">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>553</v>
-      </c>
-      <c r="C6" s="3">
-        <v>681</v>
-      </c>
-      <c r="D6" s="3">
-        <v>695</v>
-      </c>
-      <c r="E6" s="3">
-        <v>716</v>
-      </c>
-      <c r="F6" s="3">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>265</v>
-      </c>
-      <c r="C7" s="3">
-        <v>273</v>
-      </c>
-      <c r="D7" s="3">
-        <v>282</v>
-      </c>
-      <c r="E7" s="3">
-        <v>302</v>
-      </c>
-      <c r="F7" s="3">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>931</v>
-      </c>
-      <c r="C8" s="3">
-        <v>955</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1018</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1016</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>730</v>
-      </c>
-      <c r="C9" s="3">
-        <v>742</v>
-      </c>
-      <c r="D9" s="3">
-        <v>702</v>
-      </c>
-      <c r="E9" s="3">
-        <v>708</v>
-      </c>
-      <c r="F9" s="3">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>6596</v>
-      </c>
-      <c r="C10" s="3">
-        <v>6872</v>
-      </c>
-      <c r="D10" s="3">
-        <v>7086</v>
-      </c>
-      <c r="E10" s="3">
-        <v>7310</v>
-      </c>
-      <c r="F10" s="3">
-        <v>7481</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C841B7B0-2020-4FDC-B831-BFFB8B247BF3}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1">
-        <v>2015</v>
-      </c>
-      <c r="C1">
-        <v>2016</v>
-      </c>
-      <c r="D1">
-        <v>2017</v>
-      </c>
-      <c r="E1">
-        <v>2018</v>
-      </c>
-      <c r="F1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1424</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1439</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1489</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1498</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1041</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1086</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1123</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1143</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>601</v>
-      </c>
-      <c r="C4" s="3">
-        <v>623</v>
-      </c>
-      <c r="D4" s="3">
-        <v>646</v>
-      </c>
-      <c r="E4" s="3">
-        <v>658</v>
-      </c>
-      <c r="F4" s="3">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>401</v>
-      </c>
-      <c r="C5" s="3">
-        <v>429</v>
-      </c>
-      <c r="D5" s="3">
-        <v>459</v>
-      </c>
-      <c r="E5" s="3">
-        <v>467</v>
-      </c>
-      <c r="F5" s="3">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>553</v>
-      </c>
-      <c r="C6" s="3">
-        <v>573</v>
-      </c>
-      <c r="D6" s="3">
-        <v>611</v>
-      </c>
-      <c r="E6" s="3">
-        <v>633</v>
-      </c>
-      <c r="F6" s="3">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>225</v>
-      </c>
-      <c r="C7" s="3">
-        <v>239</v>
-      </c>
-      <c r="D7" s="3">
-        <v>261</v>
-      </c>
-      <c r="E7" s="3">
-        <v>279</v>
-      </c>
-      <c r="F7" s="3">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>731</v>
-      </c>
-      <c r="C8" s="3">
-        <v>789</v>
-      </c>
-      <c r="D8" s="3">
-        <v>801</v>
-      </c>
-      <c r="E8" s="3">
-        <v>859</v>
-      </c>
-      <c r="F8" s="3">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>362</v>
-      </c>
-      <c r="C9" s="3">
-        <v>383</v>
-      </c>
-      <c r="D9" s="3">
-        <v>344</v>
-      </c>
-      <c r="E9" s="3">
-        <v>378</v>
-      </c>
-      <c r="F9" s="3">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>5338</v>
-      </c>
-      <c r="C10" s="3">
-        <v>5561</v>
-      </c>
-      <c r="D10" s="3">
-        <v>5734</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5915</v>
-      </c>
-      <c r="F10" s="3">
-        <v>6054</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C97D34-9CA2-49EF-B55F-A11654448A8B}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1">
-        <v>2015</v>
-      </c>
-      <c r="C1">
-        <v>2016</v>
-      </c>
-      <c r="D1">
-        <v>2017</v>
-      </c>
-      <c r="E1">
-        <v>2018</v>
-      </c>
-      <c r="F1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1124</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1149</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1153</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1189</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>910</v>
-      </c>
-      <c r="C3" s="3">
-        <v>945</v>
-      </c>
-      <c r="D3" s="3">
-        <v>952</v>
-      </c>
-      <c r="E3" s="3">
-        <v>984</v>
-      </c>
-      <c r="F3" s="3">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>512</v>
-      </c>
-      <c r="C4" s="3">
-        <v>546</v>
-      </c>
-      <c r="D4" s="3">
-        <v>559</v>
-      </c>
-      <c r="E4" s="3">
-        <v>586</v>
-      </c>
-      <c r="F4" s="3">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>389</v>
-      </c>
-      <c r="C5" s="3">
-        <v>394</v>
-      </c>
-      <c r="D5" s="3">
-        <v>411</v>
-      </c>
-      <c r="E5" s="3">
-        <v>426</v>
-      </c>
-      <c r="F5" s="3">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>431</v>
-      </c>
-      <c r="C6" s="3">
-        <v>476</v>
-      </c>
-      <c r="D6" s="3">
-        <v>479</v>
-      </c>
-      <c r="E6" s="3">
-        <v>496</v>
-      </c>
-      <c r="F6" s="3">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>101</v>
-      </c>
-      <c r="C7" s="3">
-        <v>113</v>
-      </c>
-      <c r="D7" s="3">
-        <v>121</v>
-      </c>
-      <c r="E7" s="3">
-        <v>139</v>
-      </c>
-      <c r="F7" s="3">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>503</v>
-      </c>
-      <c r="C8" s="3">
-        <v>512</v>
-      </c>
-      <c r="D8" s="3">
-        <v>524</v>
-      </c>
-      <c r="E8" s="3">
-        <v>539</v>
-      </c>
-      <c r="F8" s="3">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>311</v>
-      </c>
-      <c r="C9" s="3">
-        <v>325</v>
-      </c>
-      <c r="D9" s="3">
-        <v>399</v>
-      </c>
-      <c r="E9" s="3">
-        <v>385</v>
-      </c>
-      <c r="F9" s="3">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>4281</v>
-      </c>
-      <c r="C10" s="3">
-        <v>4460</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4598</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4744</v>
-      </c>
-      <c r="F10" s="3">
-        <v>4855</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41ABAB45-E041-4313-AC9D-C420D20F1B37}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1">
-        <v>2015</v>
-      </c>
-      <c r="C1">
-        <v>2016</v>
-      </c>
-      <c r="D1">
-        <v>2017</v>
-      </c>
-      <c r="E1">
-        <v>2018</v>
-      </c>
-      <c r="F1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>924</v>
-      </c>
-      <c r="C2" s="3">
-        <v>946</v>
-      </c>
-      <c r="D2" s="3">
-        <v>959</v>
-      </c>
-      <c r="E2" s="3">
-        <v>969</v>
-      </c>
-      <c r="F2" s="3">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>710</v>
-      </c>
-      <c r="C3" s="3">
-        <v>731</v>
-      </c>
-      <c r="D3" s="3">
-        <v>734</v>
-      </c>
-      <c r="E3" s="3">
-        <v>748</v>
-      </c>
-      <c r="F3" s="3">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>312</v>
-      </c>
-      <c r="C4" s="3">
-        <v>329</v>
-      </c>
-      <c r="D4" s="3">
-        <v>336</v>
-      </c>
-      <c r="E4" s="3">
-        <v>356</v>
-      </c>
-      <c r="F4" s="3">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>189</v>
-      </c>
-      <c r="C5" s="3">
-        <v>195</v>
-      </c>
-      <c r="D5" s="3">
-        <v>203</v>
-      </c>
-      <c r="E5" s="3">
-        <v>226</v>
-      </c>
-      <c r="F5" s="3">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>231</v>
-      </c>
-      <c r="C6" s="3">
-        <v>249</v>
-      </c>
-      <c r="D6" s="3">
-        <v>253</v>
-      </c>
-      <c r="E6" s="3">
-        <v>279</v>
-      </c>
-      <c r="F6" s="3">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>53</v>
-      </c>
-      <c r="C7" s="3">
-        <v>62</v>
-      </c>
-      <c r="D7" s="3">
-        <v>72</v>
-      </c>
-      <c r="E7" s="3">
-        <v>89</v>
-      </c>
-      <c r="F7" s="3">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>203</v>
-      </c>
-      <c r="C8" s="3">
-        <v>222</v>
-      </c>
-      <c r="D8" s="3">
-        <v>241</v>
-      </c>
-      <c r="E8" s="3">
-        <v>279</v>
-      </c>
-      <c r="F8" s="3">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>261</v>
-      </c>
-      <c r="C9" s="3">
-        <v>269</v>
-      </c>
-      <c r="D9" s="3">
-        <v>299</v>
-      </c>
-      <c r="E9" s="3">
-        <v>249</v>
-      </c>
-      <c r="F9" s="3">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2883</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3003</v>
-      </c>
-      <c r="D10" s="3">
-        <v>3097</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3195</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3270</v>
       </c>
     </row>
   </sheetData>

--- a/Capstone Project/Alireza/YearModReg.xlsx
+++ b/Capstone Project/Alireza/YearModReg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCIT COURSES\BBA\Winter 2022\Data Modelling and BI_BUSA 7750\Capstone Project\Cars Dealership\From March 21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BC29E6-613C-4BB5-8A89-24FECCB557BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30C70AB-FACC-462A-9873-097F51BE6C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-72" windowWidth="23256" windowHeight="12576" tabRatio="982" xr2:uid="{6022C8B0-593D-4F6F-A13C-C62463C04408}"/>
+    <workbookView xWindow="-23148" yWindow="-72" windowWidth="23256" windowHeight="12576" tabRatio="982" activeTab="2" xr2:uid="{6022C8B0-593D-4F6F-A13C-C62463C04408}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelID" sheetId="15" r:id="rId1"/>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="43">
   <si>
     <t>ModelID</t>
   </si>
@@ -4841,8 +4841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFF4783-517F-4A39-85F3-50E748E02723}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6854,10 +6854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160273E6-17B8-44A8-860D-02250168E87B}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6893,7 +6893,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C36" si="0">A3&amp;B3</f>
+        <f t="shared" ref="C3:C41" si="0">A3&amp;B3</f>
         <v>M1Y2</v>
       </c>
     </row>
@@ -7291,6 +7291,66 @@
       <c r="C36" t="str">
         <f t="shared" si="0"/>
         <v>M7Y5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>M8Y1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>M8Y2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>M8Y3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>M8Y4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>M8Y5</v>
       </c>
     </row>
   </sheetData>
@@ -7302,7 +7362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D2C243-ABAA-44AA-ABBA-F56F41BA1897}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
